--- a/Jogos_do_Dia/2023-06-30_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-30_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="130">
   <si>
     <t>League</t>
   </si>
@@ -145,18 +145,24 @@
     <t>Argentina Primera División</t>
   </si>
   <si>
+    <t>Venezuela Primera División</t>
+  </si>
+  <si>
     <t>Canada Canadian Premier League</t>
   </si>
   <si>
-    <t>Venezuela Primera División</t>
-  </si>
-  <si>
     <t>USA USL Championship</t>
   </si>
   <si>
     <t>Argentina Prim B Nacional</t>
   </si>
   <si>
+    <t>Brazil Serie B</t>
+  </si>
+  <si>
+    <t>Mexico Liga MX</t>
+  </si>
+  <si>
     <t>07:00:00</t>
   </si>
   <si>
@@ -193,45 +199,57 @@
     <t>21:00:00</t>
   </si>
   <si>
+    <t>21:10:00</t>
+  </si>
+  <si>
+    <t>21:15:00</t>
+  </si>
+  <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
+    <t>22:00:00</t>
+  </si>
+  <si>
+    <t>22:30:00</t>
+  </si>
+  <si>
     <t>Cerezo Osaka</t>
   </si>
   <si>
+    <t>Etoile du Sahel</t>
+  </si>
+  <si>
+    <t>Monastir</t>
+  </si>
+  <si>
     <t>Tataouine</t>
   </si>
   <si>
-    <t>Club Africain</t>
-  </si>
-  <si>
-    <t>Etoile du Sahel</t>
-  </si>
-  <si>
-    <t>Monastir</t>
-  </si>
-  <si>
     <t>ENPPI</t>
   </si>
   <si>
     <t>Vaprus</t>
   </si>
   <si>
+    <t>Uruguay Montevideo FC</t>
+  </si>
+  <si>
     <t>Progreso</t>
   </si>
   <si>
-    <t>Uruguay Montevideo FC</t>
+    <t>El Geish</t>
   </si>
   <si>
     <t>Al Mokawloon</t>
   </si>
   <si>
-    <t>El Geish</t>
+    <t>Shelbourne</t>
   </si>
   <si>
     <t>Dundalk</t>
   </si>
   <si>
-    <t>Shelbourne</t>
-  </si>
-  <si>
     <t>Cork City</t>
   </si>
   <si>
@@ -250,12 +268,12 @@
     <t>Platense</t>
   </si>
   <si>
+    <t>Portuguesa</t>
+  </si>
+  <si>
     <t>HFX Wanderers FC</t>
   </si>
   <si>
-    <t>Portuguesa</t>
-  </si>
-  <si>
     <t>Charleston Battery</t>
   </si>
   <si>
@@ -265,45 +283,69 @@
     <t>Club Atlético Güemes</t>
   </si>
   <si>
+    <t>Ferro Carril Oeste</t>
+  </si>
+  <si>
+    <t>Angostura</t>
+  </si>
+  <si>
+    <t>Atlético Tucumán</t>
+  </si>
+  <si>
+    <t>Tombense</t>
+  </si>
+  <si>
+    <t>Vélez Sarsfield</t>
+  </si>
+  <si>
+    <t>Tulsa Roughnecks</t>
+  </si>
+  <si>
+    <t>América</t>
+  </si>
+  <si>
+    <t>Mazatlán</t>
+  </si>
+  <si>
+    <t>Pacific FC</t>
+  </si>
+  <si>
     <t>Avispa Fukuoka</t>
   </si>
   <si>
+    <t>Olympique Béja</t>
+  </si>
+  <si>
+    <t>CS Sfaxien</t>
+  </si>
+  <si>
     <t>ES Tunis</t>
   </si>
   <si>
-    <t>Ben Guerdane</t>
-  </si>
-  <si>
-    <t>Olympique Béja</t>
-  </si>
-  <si>
-    <t>CS Sfaxien</t>
-  </si>
-  <si>
     <t>Pharco</t>
   </si>
   <si>
     <t>Paide</t>
   </si>
   <si>
+    <t>Juventud</t>
+  </si>
+  <si>
     <t>Atenas</t>
   </si>
   <si>
-    <t>Juventud</t>
+    <t>Ceramica Cleopatra</t>
   </si>
   <si>
     <t>El Daklyeh FC</t>
   </si>
   <si>
-    <t>Ceramica Cleopatra</t>
+    <t>Derry City</t>
   </si>
   <si>
     <t>Shamrock Rovers</t>
   </si>
   <si>
-    <t>Derry City</t>
-  </si>
-  <si>
     <t>Drogheda United</t>
   </si>
   <si>
@@ -322,12 +364,12 @@
     <t>Lanús</t>
   </si>
   <si>
+    <t>Carabobo</t>
+  </si>
+  <si>
     <t>Forge FC</t>
   </si>
   <si>
-    <t>Carabobo</t>
-  </si>
-  <si>
     <t>Loudoun United</t>
   </si>
   <si>
@@ -335,6 +377,33 @@
   </si>
   <si>
     <t>San Martín San Juan</t>
+  </si>
+  <si>
+    <t>Brown de Adrogué</t>
+  </si>
+  <si>
+    <t>Deportivo Táchira</t>
+  </si>
+  <si>
+    <t>Unión Santa Fe</t>
+  </si>
+  <si>
+    <t>Chapecoense</t>
+  </si>
+  <si>
+    <t>Arsenal de Sarandí</t>
+  </si>
+  <si>
+    <t>Detroit City FC</t>
+  </si>
+  <si>
+    <t>Juárez</t>
+  </si>
+  <si>
+    <t>Pachuca</t>
+  </si>
+  <si>
+    <t>Atlético Ottawa</t>
   </si>
 </sst>
 </file>
@@ -696,7 +765,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI25"/>
+  <dimension ref="A1:AI33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -817,25 +886,25 @@
         <v>45107</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2">
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G2">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I2">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="J2">
         <v>1.05</v>
@@ -850,10 +919,10 @@
         <v>2.7</v>
       </c>
       <c r="N2">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="O2">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="P2">
         <v>1.51</v>
@@ -924,16 +993,16 @@
         <v>45107</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3">
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -984,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0.74</v>
+        <v>2.11</v>
       </c>
       <c r="X3">
-        <v>1.93</v>
+        <v>1.41</v>
       </c>
       <c r="Y3">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="Z3">
-        <v>1.34</v>
+        <v>0.99</v>
       </c>
       <c r="AA3">
-        <v>2.64</v>
+        <v>2.09</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -1031,16 +1100,16 @@
         <v>45107</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1091,19 +1160,19 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="X4">
-        <v>1.67</v>
+        <v>1.19</v>
       </c>
       <c r="Y4">
-        <v>1.96</v>
+        <v>1.4</v>
       </c>
       <c r="Z4">
-        <v>1.12</v>
+        <v>1.23</v>
       </c>
       <c r="AA4">
-        <v>3.08</v>
+        <v>2.63</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -1138,16 +1207,16 @@
         <v>45107</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D5">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1198,19 +1267,19 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>2.11</v>
+        <v>0.74</v>
       </c>
       <c r="X5">
-        <v>1.41</v>
+        <v>1.93</v>
       </c>
       <c r="Y5">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="Z5">
-        <v>0.99</v>
+        <v>1.34</v>
       </c>
       <c r="AA5">
-        <v>2.09</v>
+        <v>2.64</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -1239,85 +1308,85 @@
     </row>
     <row r="6" spans="1:35">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="2">
         <v>45107</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="W6">
-        <v>1.85</v>
+        <v>1.33</v>
       </c>
       <c r="X6">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>1.4</v>
+        <v>1.15</v>
       </c>
       <c r="Z6">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="AA6">
-        <v>2.63</v>
+        <v>2.35</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -1346,85 +1415,85 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2">
         <v>45107</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="G7">
-        <v>2.39</v>
+        <v>6.5</v>
       </c>
       <c r="H7">
-        <v>2.61</v>
+        <v>4.2</v>
       </c>
       <c r="I7">
-        <v>3.15</v>
+        <v>1.4</v>
       </c>
       <c r="J7">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>2.63</v>
+        <v>1.8</v>
       </c>
       <c r="O7">
-        <v>1.35</v>
+        <v>1.91</v>
       </c>
       <c r="P7">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>2.31</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>1.33</v>
+        <v>0.9</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="Y7">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
       <c r="Z7">
-        <v>1.2</v>
+        <v>1.64</v>
       </c>
       <c r="AA7">
-        <v>2.35</v>
+        <v>2.73</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -1453,31 +1522,31 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="2">
         <v>45107</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1492,10 +1561,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1519,19 +1588,19 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <v>0.9</v>
+        <v>1.29</v>
       </c>
       <c r="X8">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="Y8">
-        <v>1.09</v>
+        <v>1.44</v>
       </c>
       <c r="Z8">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="AA8">
-        <v>2.73</v>
+        <v>3</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -1566,25 +1635,25 @@
         <v>45107</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D9">
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1599,10 +1668,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1667,85 +1736,85 @@
     </row>
     <row r="10" spans="1:35">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" s="2">
         <v>45107</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="W10">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="X10">
-        <v>1.43</v>
+        <v>0.87</v>
       </c>
       <c r="Y10">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="Z10">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AA10">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -1780,25 +1849,25 @@
         <v>45107</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D11">
         <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G11">
-        <v>1.78</v>
+        <v>2.12</v>
       </c>
       <c r="H11">
-        <v>2.99</v>
+        <v>2.8</v>
       </c>
       <c r="I11">
-        <v>4.5</v>
+        <v>3.65</v>
       </c>
       <c r="J11">
         <v>1.06</v>
@@ -1881,94 +1950,94 @@
     </row>
     <row r="12" spans="1:35">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2">
         <v>45107</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D12">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="G12">
-        <v>2.59</v>
+        <v>3.55</v>
       </c>
       <c r="H12">
-        <v>2.67</v>
+        <v>3.2</v>
       </c>
       <c r="I12">
-        <v>2.78</v>
+        <v>2.07</v>
       </c>
       <c r="J12">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K12">
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="L12">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="M12">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="N12">
-        <v>2.38</v>
+        <v>2.19</v>
       </c>
       <c r="O12">
-        <v>1.43</v>
+        <v>1.56</v>
       </c>
       <c r="P12">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="Q12">
-        <v>2.4</v>
+        <v>2.39</v>
       </c>
       <c r="R12">
-        <v>2.09</v>
+        <v>2.05</v>
       </c>
       <c r="S12">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="T12">
-        <v>1.41</v>
+        <v>1.72</v>
       </c>
       <c r="U12">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="V12">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="W12">
-        <v>1.27</v>
+        <v>1.73</v>
       </c>
       <c r="X12">
-        <v>0.87</v>
+        <v>1.82</v>
       </c>
       <c r="Y12">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="Z12">
-        <v>1.63</v>
+        <v>1.26</v>
       </c>
       <c r="AA12">
-        <v>2.9</v>
+        <v>2.44</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AE12">
         <v>0</v>
@@ -1977,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH12">
         <v>0</v>
@@ -1994,25 +2063,25 @@
         <v>45107</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D13">
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G13">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="H13">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I13">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="J13">
         <v>1.07</v>
@@ -2027,10 +2096,10 @@
         <v>3.4</v>
       </c>
       <c r="N13">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="O13">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="P13">
         <v>1.36</v>
@@ -2101,88 +2170,88 @@
         <v>45107</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D14">
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="G14">
-        <v>3.25</v>
+        <v>2.19</v>
       </c>
       <c r="H14">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I14">
+        <v>2.94</v>
+      </c>
+      <c r="J14">
+        <v>1.02</v>
+      </c>
+      <c r="K14">
+        <v>9.5</v>
+      </c>
+      <c r="L14">
+        <v>1.25</v>
+      </c>
+      <c r="M14">
+        <v>3.5</v>
+      </c>
+      <c r="N14">
+        <v>2.04</v>
+      </c>
+      <c r="O14">
+        <v>1.82</v>
+      </c>
+      <c r="P14">
+        <v>1.35</v>
+      </c>
+      <c r="Q14">
+        <v>2.9</v>
+      </c>
+      <c r="R14">
+        <v>1.7</v>
+      </c>
+      <c r="S14">
         <v>2.05</v>
       </c>
-      <c r="J14">
-        <v>1.08</v>
-      </c>
-      <c r="K14">
-        <v>7</v>
-      </c>
-      <c r="L14">
+      <c r="T14">
+        <v>1.38</v>
+      </c>
+      <c r="U14">
+        <v>1.25</v>
+      </c>
+      <c r="V14">
+        <v>1.6</v>
+      </c>
+      <c r="W14">
         <v>1.45</v>
       </c>
-      <c r="M14">
-        <v>2.6</v>
-      </c>
-      <c r="N14">
-        <v>2.25</v>
-      </c>
-      <c r="O14">
-        <v>1.53</v>
-      </c>
-      <c r="P14">
-        <v>1.52</v>
-      </c>
-      <c r="Q14">
+      <c r="X14">
+        <v>1.2</v>
+      </c>
+      <c r="Y14">
+        <v>1.23</v>
+      </c>
+      <c r="Z14">
+        <v>1.16</v>
+      </c>
+      <c r="AA14">
         <v>2.39</v>
       </c>
-      <c r="R14">
-        <v>2.05</v>
-      </c>
-      <c r="S14">
-        <v>1.72</v>
-      </c>
-      <c r="T14">
-        <v>1.72</v>
-      </c>
-      <c r="U14">
-        <v>1.28</v>
-      </c>
-      <c r="V14">
-        <v>1.25</v>
-      </c>
-      <c r="W14">
-        <v>1.73</v>
-      </c>
-      <c r="X14">
-        <v>1.82</v>
-      </c>
-      <c r="Y14">
-        <v>1.18</v>
-      </c>
-      <c r="Z14">
-        <v>1.26</v>
-      </c>
-      <c r="AA14">
-        <v>2.44</v>
-      </c>
       <c r="AB14">
-        <v>2.92</v>
+        <v>2.1</v>
       </c>
       <c r="AC14">
         <v>8</v>
       </c>
       <c r="AD14">
-        <v>1.55</v>
+        <v>1.91</v>
       </c>
       <c r="AE14">
         <v>0</v>
@@ -2191,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="AG14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH14">
         <v>0</v>
@@ -2208,88 +2277,88 @@
         <v>45107</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D15">
         <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="G15">
-        <v>2.25</v>
+        <v>2.85</v>
       </c>
       <c r="H15">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I15">
-        <v>2.85</v>
+        <v>2.46</v>
       </c>
       <c r="J15">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="K15">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="L15">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="M15">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N15">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="O15">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="P15">
-        <v>1.35</v>
+        <v>1.51</v>
       </c>
       <c r="Q15">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="R15">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
       <c r="T15">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="U15">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="V15">
-        <v>1.6</v>
+        <v>1.32</v>
       </c>
       <c r="W15">
-        <v>1.45</v>
+        <v>1.2</v>
       </c>
       <c r="X15">
-        <v>1.2</v>
+        <v>1.64</v>
       </c>
       <c r="Y15">
-        <v>1.23</v>
+        <v>1.41</v>
       </c>
       <c r="Z15">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AA15">
-        <v>2.39</v>
+        <v>2.56</v>
       </c>
       <c r="AB15">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD15">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AE15">
         <v>0</v>
@@ -2298,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AH15">
         <v>0</v>
@@ -2315,88 +2384,88 @@
         <v>45107</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D16">
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="G16">
-        <v>2.66</v>
+        <v>1.18</v>
       </c>
       <c r="H16">
-        <v>3.05</v>
+        <v>6.2</v>
       </c>
       <c r="I16">
-        <v>2.56</v>
+        <v>14</v>
       </c>
       <c r="J16">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="K16">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="L16">
-        <v>1.37</v>
+        <v>1.13</v>
       </c>
       <c r="M16">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="N16">
-        <v>1.95</v>
+        <v>1.56</v>
       </c>
       <c r="O16">
-        <v>1.7</v>
+        <v>2.18</v>
       </c>
       <c r="P16">
+        <v>1.27</v>
+      </c>
+      <c r="Q16">
+        <v>3.56</v>
+      </c>
+      <c r="R16">
+        <v>2.3</v>
+      </c>
+      <c r="S16">
+        <v>1.55</v>
+      </c>
+      <c r="T16">
+        <v>1.01</v>
+      </c>
+      <c r="U16">
+        <v>1.09</v>
+      </c>
+      <c r="V16">
+        <v>5.25</v>
+      </c>
+      <c r="W16">
+        <v>2</v>
+      </c>
+      <c r="X16">
+        <v>0.09</v>
+      </c>
+      <c r="Y16">
         <v>1.51</v>
       </c>
-      <c r="Q16">
-        <v>2.4</v>
-      </c>
-      <c r="R16">
-        <v>2</v>
-      </c>
-      <c r="S16">
-        <v>1.73</v>
-      </c>
-      <c r="T16">
-        <v>1.48</v>
-      </c>
-      <c r="U16">
-        <v>1.3</v>
-      </c>
-      <c r="V16">
-        <v>1.32</v>
-      </c>
-      <c r="W16">
-        <v>1.2</v>
-      </c>
-      <c r="X16">
-        <v>1.64</v>
-      </c>
-      <c r="Y16">
-        <v>1.41</v>
-      </c>
       <c r="Z16">
-        <v>1.15</v>
+        <v>0.97</v>
       </c>
       <c r="AA16">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>6.16</v>
       </c>
       <c r="AE16">
         <v>0</v>
@@ -2405,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="AG16">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AH16">
         <v>0</v>
@@ -2415,95 +2484,95 @@
       </c>
     </row>
     <row r="17" spans="1:35">
-      <c r="A17" t="s">
-        <v>40</v>
+      <c r="A17">
+        <v>9543</v>
       </c>
       <c r="B17" s="2">
         <v>45107</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D17">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F17" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="G17">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>3.56</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>5.25</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X17">
-        <v>0.09</v>
+        <v>3</v>
       </c>
       <c r="Y17">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>0.97</v>
+        <v>2.96</v>
       </c>
       <c r="AA17">
-        <v>2.48</v>
+        <v>2.96</v>
       </c>
       <c r="AB17">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AC17">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AD17">
-        <v>6.16</v>
+        <v>0</v>
       </c>
       <c r="AE17">
         <v>0</v>
@@ -2512,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="AG17">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AH17">
         <v>0</v>
@@ -2522,86 +2591,86 @@
       </c>
     </row>
     <row r="18" spans="1:35">
-      <c r="A18">
-        <v>9543</v>
+      <c r="A18" t="s">
+        <v>41</v>
       </c>
       <c r="B18" s="2">
         <v>45107</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F18" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.52</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W18">
-        <v>3</v>
+        <v>1.78</v>
       </c>
       <c r="X18">
-        <v>3</v>
+        <v>1.22</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="Z18">
-        <v>2.96</v>
+        <v>1.28</v>
       </c>
       <c r="AA18">
-        <v>2.96</v>
+        <v>2.86</v>
       </c>
       <c r="AB18">
         <v>0</v>
@@ -2630,94 +2699,94 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" s="2">
         <v>45107</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F19" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="G19">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="H19">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I19">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="J19">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="K19">
-        <v>9.5</v>
+        <v>5.75</v>
       </c>
       <c r="L19">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="M19">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="N19">
-        <v>1.77</v>
+        <v>2.57</v>
       </c>
       <c r="O19">
-        <v>1.87</v>
+        <v>1.43</v>
       </c>
       <c r="P19">
+        <v>1.57</v>
+      </c>
+      <c r="Q19">
+        <v>2.25</v>
+      </c>
+      <c r="R19">
+        <v>2.1</v>
+      </c>
+      <c r="S19">
+        <v>1.67</v>
+      </c>
+      <c r="T19">
+        <v>1.53</v>
+      </c>
+      <c r="U19">
         <v>1.36</v>
-      </c>
-      <c r="Q19">
-        <v>2.88</v>
-      </c>
-      <c r="R19">
-        <v>1.73</v>
-      </c>
-      <c r="S19">
-        <v>2.05</v>
-      </c>
-      <c r="T19">
-        <v>1.42</v>
-      </c>
-      <c r="U19">
-        <v>1.28</v>
       </c>
       <c r="V19">
         <v>1.4</v>
       </c>
       <c r="W19">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="X19">
-        <v>1.22</v>
+        <v>1.09</v>
       </c>
       <c r="Y19">
-        <v>1.58</v>
+        <v>1.43</v>
       </c>
       <c r="Z19">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AA19">
-        <v>2.86</v>
+        <v>2.72</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE19">
         <v>0</v>
@@ -2726,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AH19">
         <v>0</v>
@@ -2737,94 +2806,94 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2">
         <v>45107</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F20" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="G20">
-        <v>2.9</v>
+        <v>2.37</v>
       </c>
       <c r="H20">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="I20">
-        <v>2.5</v>
+        <v>2.93</v>
       </c>
       <c r="J20">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>5.75</v>
+        <v>0</v>
       </c>
       <c r="L20">
+        <v>1.55</v>
+      </c>
+      <c r="M20">
+        <v>2.3</v>
+      </c>
+      <c r="N20">
+        <v>2.4</v>
+      </c>
+      <c r="O20">
         <v>1.5</v>
       </c>
-      <c r="M20">
-        <v>2.4</v>
-      </c>
-      <c r="N20">
-        <v>2.57</v>
-      </c>
-      <c r="O20">
-        <v>1.43</v>
-      </c>
       <c r="P20">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>1.73</v>
+        <v>1.29</v>
       </c>
       <c r="X20">
-        <v>1.09</v>
+        <v>1.29</v>
       </c>
       <c r="Y20">
-        <v>1.43</v>
+        <v>1.68</v>
       </c>
       <c r="Z20">
-        <v>1.29</v>
+        <v>1.56</v>
       </c>
       <c r="AA20">
-        <v>2.72</v>
+        <v>3.24</v>
       </c>
       <c r="AB20">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AD20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE20">
         <v>0</v>
@@ -2833,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="AG20">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AH20">
         <v>0</v>
@@ -2844,31 +2913,31 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" s="2">
         <v>45107</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D21">
         <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F21" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="G21">
-        <v>2.28</v>
+        <v>2.39</v>
       </c>
       <c r="H21">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="I21">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2951,85 +3020,85 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" s="2">
         <v>45107</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D22">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F22" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.75</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>3.97</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="W22">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="X22">
-        <v>1.29</v>
+        <v>0.75</v>
       </c>
       <c r="Y22">
-        <v>1.68</v>
+        <v>1.2</v>
       </c>
       <c r="Z22">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="AA22">
-        <v>3.24</v>
+        <v>2.54</v>
       </c>
       <c r="AB22">
         <v>0</v>
@@ -3058,85 +3127,85 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2">
         <v>45107</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F23" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="G23">
+        <v>2.55</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>2.8</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>1.47</v>
+      </c>
+      <c r="M23">
+        <v>2.5</v>
+      </c>
+      <c r="N23">
+        <v>2.31</v>
+      </c>
+      <c r="O23">
+        <v>1.48</v>
+      </c>
+      <c r="P23">
         <v>1.53</v>
       </c>
-      <c r="H23">
-        <v>3.75</v>
-      </c>
-      <c r="I23">
-        <v>5</v>
-      </c>
-      <c r="J23">
+      <c r="Q23">
+        <v>2.38</v>
+      </c>
+      <c r="R23">
+        <v>2.1</v>
+      </c>
+      <c r="S23">
+        <v>1.67</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>2</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>1.4</v>
+      </c>
+      <c r="Z23">
         <v>1.03</v>
       </c>
-      <c r="K23">
-        <v>15.75</v>
-      </c>
-      <c r="L23">
-        <v>1.21</v>
-      </c>
-      <c r="M23">
-        <v>3.97</v>
-      </c>
-      <c r="N23">
-        <v>1.61</v>
-      </c>
-      <c r="O23">
-        <v>2.05</v>
-      </c>
-      <c r="P23">
-        <v>1.31</v>
-      </c>
-      <c r="Q23">
-        <v>3.15</v>
-      </c>
-      <c r="R23">
-        <v>1.71</v>
-      </c>
-      <c r="S23">
-        <v>2.08</v>
-      </c>
-      <c r="T23">
-        <v>1.13</v>
-      </c>
-      <c r="U23">
-        <v>1.19</v>
-      </c>
-      <c r="V23">
-        <v>2.28</v>
-      </c>
-      <c r="W23">
-        <v>1.33</v>
-      </c>
-      <c r="X23">
-        <v>0.75</v>
-      </c>
-      <c r="Y23">
-        <v>1.2</v>
-      </c>
-      <c r="Z23">
-        <v>1.34</v>
-      </c>
       <c r="AA23">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AB23">
         <v>0</v>
@@ -3171,25 +3240,25 @@
         <v>45107</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F24" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="G24">
-        <v>2.43</v>
+        <v>3.3</v>
       </c>
       <c r="H24">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="I24">
-        <v>2.67</v>
+        <v>2.36</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -3198,28 +3267,28 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="N24">
-        <v>2.38</v>
+        <v>2.95</v>
       </c>
       <c r="O24">
-        <v>1.53</v>
+        <v>1.3</v>
       </c>
       <c r="P24">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="Q24">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="R24">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="S24">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="T24">
         <v>0</v>
@@ -3231,19 +3300,19 @@
         <v>0</v>
       </c>
       <c r="W24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X24">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="Y24">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="Z24">
-        <v>1.03</v>
+        <v>1.26</v>
       </c>
       <c r="AA24">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="AB24">
         <v>0</v>
@@ -3278,25 +3347,25 @@
         <v>45107</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D25">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F25" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="G25">
-        <v>3.11</v>
+        <v>2.36</v>
       </c>
       <c r="H25">
-        <v>2.68</v>
+        <v>2.85</v>
       </c>
       <c r="I25">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -3311,10 +3380,10 @@
         <v>2.11</v>
       </c>
       <c r="N25">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="O25">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P25">
         <v>1.67</v>
@@ -3338,42 +3407,898 @@
         <v>0</v>
       </c>
       <c r="W25">
+        <v>1.33</v>
+      </c>
+      <c r="X25">
+        <v>1.22</v>
+      </c>
+      <c r="Y25">
+        <v>1.47</v>
+      </c>
+      <c r="Z25">
+        <v>1.09</v>
+      </c>
+      <c r="AA25">
+        <v>2.56</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="2">
+        <v>45107</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26">
+        <v>3.04</v>
+      </c>
+      <c r="H26">
+        <v>3.12</v>
+      </c>
+      <c r="I26">
+        <v>2.13</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+      <c r="O26">
+        <v>1.73</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>1.57</v>
+      </c>
+      <c r="X26">
+        <v>1.57</v>
+      </c>
+      <c r="Y26">
+        <v>1.66</v>
+      </c>
+      <c r="Z26">
+        <v>1.44</v>
+      </c>
+      <c r="AA26">
+        <v>3.1</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="2">
+        <v>45107</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27">
+        <v>2.1</v>
+      </c>
+      <c r="H27">
+        <v>3.2</v>
+      </c>
+      <c r="I27">
+        <v>3.75</v>
+      </c>
+      <c r="J27">
+        <v>1.11</v>
+      </c>
+      <c r="K27">
+        <v>6</v>
+      </c>
+      <c r="L27">
+        <v>1.5</v>
+      </c>
+      <c r="M27">
+        <v>2.5</v>
+      </c>
+      <c r="N27">
+        <v>2.38</v>
+      </c>
+      <c r="O27">
+        <v>1.53</v>
+      </c>
+      <c r="P27">
+        <v>1.5</v>
+      </c>
+      <c r="Q27">
+        <v>2.5</v>
+      </c>
+      <c r="R27">
+        <v>2.1</v>
+      </c>
+      <c r="S27">
+        <v>1.67</v>
+      </c>
+      <c r="T27">
+        <v>1.28</v>
+      </c>
+      <c r="U27">
+        <v>1.3</v>
+      </c>
+      <c r="V27">
+        <v>1.75</v>
+      </c>
+      <c r="W27">
+        <v>1.3</v>
+      </c>
+      <c r="X27">
         <v>1</v>
       </c>
-      <c r="X25">
+      <c r="Y27">
+        <v>1.5</v>
+      </c>
+      <c r="Z27">
+        <v>1.11</v>
+      </c>
+      <c r="AA27">
+        <v>2.61</v>
+      </c>
+      <c r="AB27">
+        <v>1.82</v>
+      </c>
+      <c r="AC27">
+        <v>8</v>
+      </c>
+      <c r="AD27">
+        <v>2.39</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>2</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="2">
+        <v>45107</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" t="s">
+        <v>124</v>
+      </c>
+      <c r="G28">
+        <v>2.15</v>
+      </c>
+      <c r="H28">
+        <v>3.1</v>
+      </c>
+      <c r="I28">
+        <v>3.8</v>
+      </c>
+      <c r="J28">
+        <v>1.09</v>
+      </c>
+      <c r="K28">
+        <v>7.7</v>
+      </c>
+      <c r="L28">
+        <v>1.44</v>
+      </c>
+      <c r="M28">
+        <v>2.65</v>
+      </c>
+      <c r="N28">
+        <v>2.32</v>
+      </c>
+      <c r="O28">
+        <v>1.5</v>
+      </c>
+      <c r="P28">
+        <v>1.52</v>
+      </c>
+      <c r="Q28">
+        <v>2.39</v>
+      </c>
+      <c r="R28">
+        <v>2.05</v>
+      </c>
+      <c r="S28">
+        <v>1.72</v>
+      </c>
+      <c r="T28">
         <v>1.2</v>
       </c>
-      <c r="Y25">
+      <c r="U28">
+        <v>1.3</v>
+      </c>
+      <c r="V28">
+        <v>1.75</v>
+      </c>
+      <c r="W28">
+        <v>0.71</v>
+      </c>
+      <c r="X28">
+        <v>0.83</v>
+      </c>
+      <c r="Y28">
+        <v>1.83</v>
+      </c>
+      <c r="Z28">
+        <v>1.53</v>
+      </c>
+      <c r="AA28">
+        <v>3.36</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="2">
+        <v>45107</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29">
+        <v>22</v>
+      </c>
+      <c r="E29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" t="s">
+        <v>125</v>
+      </c>
+      <c r="G29">
+        <v>1.68</v>
+      </c>
+      <c r="H29">
+        <v>3.5</v>
+      </c>
+      <c r="I29">
+        <v>5.5</v>
+      </c>
+      <c r="J29">
+        <v>1.1</v>
+      </c>
+      <c r="K29">
+        <v>6.5</v>
+      </c>
+      <c r="L29">
+        <v>1.44</v>
+      </c>
+      <c r="M29">
+        <v>2.62</v>
+      </c>
+      <c r="N29">
+        <v>2.2</v>
+      </c>
+      <c r="O29">
+        <v>1.62</v>
+      </c>
+      <c r="P29">
+        <v>1.5</v>
+      </c>
+      <c r="Q29">
+        <v>2.5</v>
+      </c>
+      <c r="R29">
+        <v>2.2</v>
+      </c>
+      <c r="S29">
+        <v>1.62</v>
+      </c>
+      <c r="T29">
+        <v>1.14</v>
+      </c>
+      <c r="U29">
+        <v>1.25</v>
+      </c>
+      <c r="V29">
+        <v>2.2</v>
+      </c>
+      <c r="W29">
+        <v>1.18</v>
+      </c>
+      <c r="X29">
+        <v>0.36</v>
+      </c>
+      <c r="Y29">
+        <v>1.29</v>
+      </c>
+      <c r="Z29">
+        <v>1.07</v>
+      </c>
+      <c r="AA29">
+        <v>2.36</v>
+      </c>
+      <c r="AB29">
+        <v>1.55</v>
+      </c>
+      <c r="AC29">
+        <v>8</v>
+      </c>
+      <c r="AD29">
+        <v>3.02</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>2</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="2">
+        <v>45107</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" t="s">
+        <v>126</v>
+      </c>
+      <c r="G30">
+        <v>2.12</v>
+      </c>
+      <c r="H30">
+        <v>3.45</v>
+      </c>
+      <c r="I30">
+        <v>3.15</v>
+      </c>
+      <c r="J30">
+        <v>1.04</v>
+      </c>
+      <c r="K30">
+        <v>12.25</v>
+      </c>
+      <c r="L30">
+        <v>1.26</v>
+      </c>
+      <c r="M30">
+        <v>3.48</v>
+      </c>
+      <c r="N30">
+        <v>1.73</v>
+      </c>
+      <c r="O30">
+        <v>1.79</v>
+      </c>
+      <c r="P30">
+        <v>1.38</v>
+      </c>
+      <c r="Q30">
+        <v>2.8</v>
+      </c>
+      <c r="R30">
+        <v>1.7</v>
+      </c>
+      <c r="S30">
+        <v>2.05</v>
+      </c>
+      <c r="T30">
+        <v>1.32</v>
+      </c>
+      <c r="U30">
+        <v>1.27</v>
+      </c>
+      <c r="V30">
+        <v>1.65</v>
+      </c>
+      <c r="W30">
+        <v>0.86</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
+      </c>
+      <c r="Y30">
+        <v>1.48</v>
+      </c>
+      <c r="Z30">
+        <v>1.21</v>
+      </c>
+      <c r="AA30">
+        <v>2.69</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="2">
+        <v>45107</v>
+      </c>
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" t="s">
+        <v>127</v>
+      </c>
+      <c r="G31">
         <v>1.35</v>
       </c>
-      <c r="Z25">
-        <v>1.26</v>
-      </c>
-      <c r="AA25">
-        <v>2.61</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-      <c r="AF25">
-        <v>0</v>
-      </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
-      <c r="AH25">
-        <v>0</v>
-      </c>
-      <c r="AI25">
+      <c r="H31">
+        <v>4.72</v>
+      </c>
+      <c r="I31">
+        <v>7.2</v>
+      </c>
+      <c r="J31">
+        <v>1.02</v>
+      </c>
+      <c r="K31">
+        <v>17</v>
+      </c>
+      <c r="L31">
+        <v>1.2</v>
+      </c>
+      <c r="M31">
+        <v>4.5</v>
+      </c>
+      <c r="N31">
+        <v>1.6</v>
+      </c>
+      <c r="O31">
+        <v>2.2</v>
+      </c>
+      <c r="P31">
+        <v>1.3</v>
+      </c>
+      <c r="Q31">
+        <v>3.4</v>
+      </c>
+      <c r="R31">
+        <v>1.91</v>
+      </c>
+      <c r="S31">
+        <v>1.91</v>
+      </c>
+      <c r="T31">
+        <v>1.09</v>
+      </c>
+      <c r="U31">
+        <v>1.17</v>
+      </c>
+      <c r="V31">
+        <v>2.95</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>1.25</v>
+      </c>
+      <c r="AF31">
+        <v>1.47</v>
+      </c>
+      <c r="AG31">
+        <v>1.85</v>
+      </c>
+      <c r="AH31">
+        <v>2.45</v>
+      </c>
+      <c r="AI31">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="2">
+        <v>45107</v>
+      </c>
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32">
+        <v>4.98</v>
+      </c>
+      <c r="H32">
+        <v>4.1</v>
+      </c>
+      <c r="I32">
+        <v>1.55</v>
+      </c>
+      <c r="J32">
+        <v>1.02</v>
+      </c>
+      <c r="K32">
+        <v>13</v>
+      </c>
+      <c r="L32">
+        <v>1.18</v>
+      </c>
+      <c r="M32">
+        <v>4.75</v>
+      </c>
+      <c r="N32">
+        <v>1.58</v>
+      </c>
+      <c r="O32">
+        <v>2.25</v>
+      </c>
+      <c r="P32">
+        <v>1.29</v>
+      </c>
+      <c r="Q32">
+        <v>3.5</v>
+      </c>
+      <c r="R32">
+        <v>1.67</v>
+      </c>
+      <c r="S32">
+        <v>2.1</v>
+      </c>
+      <c r="T32">
+        <v>2.3</v>
+      </c>
+      <c r="U32">
+        <v>1.22</v>
+      </c>
+      <c r="V32">
+        <v>1.15</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>1.25</v>
+      </c>
+      <c r="AF32">
+        <v>1.47</v>
+      </c>
+      <c r="AG32">
+        <v>1.85</v>
+      </c>
+      <c r="AH32">
+        <v>2.45</v>
+      </c>
+      <c r="AI32">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="2">
+        <v>45107</v>
+      </c>
+      <c r="C33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" t="s">
+        <v>129</v>
+      </c>
+      <c r="G33">
+        <v>1.65</v>
+      </c>
+      <c r="H33">
+        <v>3.5</v>
+      </c>
+      <c r="I33">
+        <v>4.4</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>1.86</v>
+      </c>
+      <c r="O33">
+        <v>1.72</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>2</v>
+      </c>
+      <c r="X33">
+        <v>0.8</v>
+      </c>
+      <c r="Y33">
+        <v>1.46</v>
+      </c>
+      <c r="Z33">
+        <v>1.2</v>
+      </c>
+      <c r="AA33">
+        <v>2.66</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia/2023-06-30_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-30_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="132">
   <si>
     <t>League</t>
   </si>
@@ -142,15 +142,15 @@
     <t>Peru Primera División</t>
   </si>
   <si>
+    <t>Canada Canadian Premier League</t>
+  </si>
+  <si>
+    <t>Venezuela Primera División</t>
+  </si>
+  <si>
     <t>Argentina Primera División</t>
   </si>
   <si>
-    <t>Venezuela Primera División</t>
-  </si>
-  <si>
-    <t>Canada Canadian Premier League</t>
-  </si>
-  <si>
     <t>USA USL Championship</t>
   </si>
   <si>
@@ -217,15 +217,18 @@
     <t>Cerezo Osaka</t>
   </si>
   <si>
+    <t>Tataouine</t>
+  </si>
+  <si>
+    <t>Monastir</t>
+  </si>
+  <si>
+    <t>Club Africain</t>
+  </si>
+  <si>
     <t>Etoile du Sahel</t>
   </si>
   <si>
-    <t>Monastir</t>
-  </si>
-  <si>
-    <t>Tataouine</t>
-  </si>
-  <si>
     <t>ENPPI</t>
   </si>
   <si>
@@ -238,10 +241,16 @@
     <t>Progreso</t>
   </si>
   <si>
+    <t>Al Mokawloon</t>
+  </si>
+  <si>
     <t>El Geish</t>
   </si>
   <si>
-    <t>Al Mokawloon</t>
+    <t>Sligo Rovers</t>
+  </si>
+  <si>
+    <t>St Patrick's Athl.</t>
   </si>
   <si>
     <t>Shelbourne</t>
@@ -253,51 +262,45 @@
     <t>Cork City</t>
   </si>
   <si>
-    <t>Sligo Rovers</t>
-  </si>
-  <si>
-    <t>St Patrick's Athl.</t>
-  </si>
-  <si>
     <t>Budućnost</t>
   </si>
   <si>
     <t>UTC Cajamarca</t>
   </si>
   <si>
+    <t>HFX Wanderers FC</t>
+  </si>
+  <si>
+    <t>Portuguesa</t>
+  </si>
+  <si>
     <t>Platense</t>
   </si>
   <si>
-    <t>Portuguesa</t>
-  </si>
-  <si>
-    <t>HFX Wanderers FC</t>
-  </si>
-  <si>
     <t>Charleston Battery</t>
   </si>
   <si>
+    <t>Club Atlético Güemes</t>
+  </si>
+  <si>
     <t>Gimnasia Jujuy</t>
   </si>
   <si>
-    <t>Club Atlético Güemes</t>
-  </si>
-  <si>
     <t>Ferro Carril Oeste</t>
   </si>
   <si>
     <t>Angostura</t>
   </si>
   <si>
+    <t>Vélez Sarsfield</t>
+  </si>
+  <si>
+    <t>Tombense</t>
+  </si>
+  <si>
     <t>Atlético Tucumán</t>
   </si>
   <si>
-    <t>Tombense</t>
-  </si>
-  <si>
-    <t>Vélez Sarsfield</t>
-  </si>
-  <si>
     <t>Tulsa Roughnecks</t>
   </si>
   <si>
@@ -313,15 +316,18 @@
     <t>Avispa Fukuoka</t>
   </si>
   <si>
+    <t>ES Tunis</t>
+  </si>
+  <si>
+    <t>CS Sfaxien</t>
+  </si>
+  <si>
+    <t>Ben Guerdane</t>
+  </si>
+  <si>
     <t>Olympique Béja</t>
   </si>
   <si>
-    <t>CS Sfaxien</t>
-  </si>
-  <si>
-    <t>ES Tunis</t>
-  </si>
-  <si>
     <t>Pharco</t>
   </si>
   <si>
@@ -334,10 +340,16 @@
     <t>Atenas</t>
   </si>
   <si>
+    <t>El Daklyeh FC</t>
+  </si>
+  <si>
     <t>Ceramica Cleopatra</t>
   </si>
   <si>
-    <t>El Daklyeh FC</t>
+    <t>Bohemians</t>
+  </si>
+  <si>
+    <t>UCD</t>
   </si>
   <si>
     <t>Derry City</t>
@@ -349,49 +361,43 @@
     <t>Drogheda United</t>
   </si>
   <si>
-    <t>Bohemians</t>
-  </si>
-  <si>
-    <t>UCD</t>
-  </si>
-  <si>
     <t>Breidablik</t>
   </si>
   <si>
     <t>Sport Huancayo</t>
   </si>
   <si>
+    <t>Forge FC</t>
+  </si>
+  <si>
+    <t>Carabobo</t>
+  </si>
+  <si>
     <t>Lanús</t>
   </si>
   <si>
-    <t>Carabobo</t>
-  </si>
-  <si>
-    <t>Forge FC</t>
-  </si>
-  <si>
     <t>Loudoun United</t>
   </si>
   <si>
+    <t>San Martín San Juan</t>
+  </si>
+  <si>
     <t>Quilmes</t>
   </si>
   <si>
-    <t>San Martín San Juan</t>
-  </si>
-  <si>
     <t>Brown de Adrogué</t>
   </si>
   <si>
     <t>Deportivo Táchira</t>
   </si>
   <si>
+    <t>Arsenal de Sarandí</t>
+  </si>
+  <si>
+    <t>Chapecoense</t>
+  </si>
+  <si>
     <t>Unión Santa Fe</t>
-  </si>
-  <si>
-    <t>Chapecoense</t>
-  </si>
-  <si>
-    <t>Arsenal de Sarandí</t>
   </si>
   <si>
     <t>Detroit City FC</t>
@@ -765,7 +771,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI33"/>
+  <dimension ref="A1:AI34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -895,16 +901,16 @@
         <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G2">
-        <v>2.09</v>
+        <v>2.21</v>
       </c>
       <c r="H2">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I2">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="J2">
         <v>1.05</v>
@@ -946,10 +952,10 @@
         <v>1.7</v>
       </c>
       <c r="W2">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="X2">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="Y2">
         <v>1.2</v>
@@ -1002,7 +1008,7 @@
         <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1053,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>2.11</v>
+        <v>0.74</v>
       </c>
       <c r="X3">
-        <v>1.41</v>
+        <v>1.93</v>
       </c>
       <c r="Y3">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="Z3">
-        <v>0.99</v>
+        <v>1.34</v>
       </c>
       <c r="AA3">
-        <v>2.09</v>
+        <v>2.64</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -1109,7 +1115,7 @@
         <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1216,16 +1222,16 @@
         <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.11</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.66</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1240,10 +1246,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1267,19 +1273,19 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0.74</v>
+        <v>1.74</v>
       </c>
       <c r="X5">
-        <v>1.93</v>
+        <v>1.67</v>
       </c>
       <c r="Y5">
-        <v>1.3</v>
+        <v>1.96</v>
       </c>
       <c r="Z5">
-        <v>1.34</v>
+        <v>1.12</v>
       </c>
       <c r="AA5">
-        <v>2.64</v>
+        <v>3.08</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -1308,85 +1314,85 @@
     </row>
     <row r="6" spans="1:35">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2">
         <v>45107</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
         <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G6">
-        <v>2.41</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>2.11</v>
+      </c>
+      <c r="X6">
+        <v>1.41</v>
+      </c>
+      <c r="Y6">
         <v>1.1</v>
       </c>
-      <c r="K6">
-        <v>5.7</v>
-      </c>
-      <c r="L6">
-        <v>1.53</v>
-      </c>
-      <c r="M6">
-        <v>2.39</v>
-      </c>
-      <c r="N6">
-        <v>2.63</v>
-      </c>
-      <c r="O6">
-        <v>1.35</v>
-      </c>
-      <c r="P6">
-        <v>1.6</v>
-      </c>
-      <c r="Q6">
-        <v>2.31</v>
-      </c>
-      <c r="R6">
-        <v>2.14</v>
-      </c>
-      <c r="S6">
-        <v>1.67</v>
-      </c>
-      <c r="T6">
-        <v>1.33</v>
-      </c>
-      <c r="U6">
-        <v>1.41</v>
-      </c>
-      <c r="V6">
-        <v>1.54</v>
-      </c>
-      <c r="W6">
-        <v>1.33</v>
-      </c>
-      <c r="X6">
-        <v>1</v>
-      </c>
-      <c r="Y6">
-        <v>1.15</v>
-      </c>
       <c r="Z6">
-        <v>1.2</v>
+        <v>0.99</v>
       </c>
       <c r="AA6">
-        <v>2.35</v>
+        <v>2.09</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -1415,85 +1421,85 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2">
         <v>45107</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
         <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G7">
-        <v>6.5</v>
+        <v>2.49</v>
       </c>
       <c r="H7">
-        <v>4.2</v>
+        <v>2.73</v>
       </c>
       <c r="I7">
-        <v>1.4</v>
+        <v>3.34</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="N7">
-        <v>1.8</v>
+        <v>2.63</v>
       </c>
       <c r="O7">
-        <v>1.91</v>
+        <v>1.35</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="W7">
-        <v>0.9</v>
+        <v>1.33</v>
       </c>
       <c r="X7">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>1.09</v>
+        <v>1.15</v>
       </c>
       <c r="Z7">
-        <v>1.64</v>
+        <v>1.2</v>
       </c>
       <c r="AA7">
-        <v>2.73</v>
+        <v>2.35</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -1522,31 +1528,31 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2">
         <v>45107</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
         <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G8">
-        <v>2.02</v>
+        <v>6.19</v>
       </c>
       <c r="H8">
-        <v>2.95</v>
+        <v>3.71</v>
       </c>
       <c r="I8">
-        <v>3.65</v>
+        <v>1.39</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1561,10 +1567,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.35</v>
+        <v>1.64</v>
       </c>
       <c r="O8">
-        <v>1.46</v>
+        <v>1.91</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1588,19 +1594,19 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <v>1.29</v>
+        <v>0.9</v>
       </c>
       <c r="X8">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="Y8">
-        <v>1.44</v>
+        <v>1.09</v>
       </c>
       <c r="Z8">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="AA8">
-        <v>3</v>
+        <v>2.73</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -1644,17 +1650,17 @@
         <v>73</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G9">
-        <v>1.51</v>
+        <v>2</v>
       </c>
       <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
         <v>3.6</v>
       </c>
-      <c r="I9">
-        <v>5.9</v>
-      </c>
       <c r="J9">
         <v>0</v>
       </c>
@@ -1668,10 +1674,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.06</v>
+        <v>2.41</v>
       </c>
       <c r="O9">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1695,19 +1701,19 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>2.57</v>
+        <v>1.29</v>
       </c>
       <c r="X9">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="Y9">
-        <v>1.76</v>
+        <v>1.44</v>
       </c>
       <c r="Z9">
-        <v>1.07</v>
+        <v>1.56</v>
       </c>
       <c r="AA9">
-        <v>2.83</v>
+        <v>3</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -1736,85 +1742,85 @@
     </row>
     <row r="10" spans="1:35">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2">
         <v>45107</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
         <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G10">
-        <v>2.7</v>
+        <v>1.53</v>
       </c>
       <c r="H10">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="I10">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="J10">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>2.38</v>
+        <v>2.12</v>
       </c>
       <c r="O10">
-        <v>1.43</v>
+        <v>1.65</v>
       </c>
       <c r="P10">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>2.09</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>1.27</v>
+        <v>2.57</v>
       </c>
       <c r="X10">
-        <v>0.87</v>
+        <v>1.29</v>
       </c>
       <c r="Y10">
-        <v>1.27</v>
+        <v>1.76</v>
       </c>
       <c r="Z10">
-        <v>1.63</v>
+        <v>1.07</v>
       </c>
       <c r="AA10">
-        <v>2.9</v>
+        <v>2.83</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -1858,16 +1864,16 @@
         <v>75</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G11">
-        <v>2.12</v>
+        <v>1.84</v>
       </c>
       <c r="H11">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="I11">
-        <v>3.65</v>
+        <v>4.77</v>
       </c>
       <c r="J11">
         <v>1.06</v>
@@ -1876,10 +1882,10 @@
         <v>7</v>
       </c>
       <c r="L11">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="M11">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="N11">
         <v>2.24</v>
@@ -1950,94 +1956,94 @@
     </row>
     <row r="12" spans="1:35">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B12" s="2">
         <v>45107</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
         <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G12">
-        <v>3.55</v>
+        <v>2.47</v>
       </c>
       <c r="H12">
-        <v>3.2</v>
+        <v>2.65</v>
       </c>
       <c r="I12">
-        <v>2.07</v>
+        <v>2.65</v>
       </c>
       <c r="J12">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K12">
-        <v>7</v>
+        <v>5.7</v>
       </c>
       <c r="L12">
         <v>1.48</v>
       </c>
       <c r="M12">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="N12">
-        <v>2.19</v>
+        <v>2.38</v>
       </c>
       <c r="O12">
+        <v>1.43</v>
+      </c>
+      <c r="P12">
         <v>1.56</v>
       </c>
-      <c r="P12">
-        <v>1.52</v>
-      </c>
       <c r="Q12">
-        <v>2.39</v>
+        <v>2.4</v>
       </c>
       <c r="R12">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="S12">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="T12">
-        <v>1.72</v>
+        <v>1.41</v>
       </c>
       <c r="U12">
-        <v>1.28</v>
+        <v>1.41</v>
       </c>
       <c r="V12">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="W12">
-        <v>1.73</v>
+        <v>1.27</v>
       </c>
       <c r="X12">
-        <v>1.82</v>
+        <v>0.87</v>
       </c>
       <c r="Y12">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="Z12">
-        <v>1.26</v>
+        <v>1.63</v>
       </c>
       <c r="AA12">
-        <v>2.44</v>
+        <v>2.9</v>
       </c>
       <c r="AB12">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="AC12">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD12">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AE12">
         <v>0</v>
@@ -2046,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="AG12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH12">
         <v>0</v>
@@ -2072,79 +2078,79 @@
         <v>77</v>
       </c>
       <c r="F13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G13">
-        <v>3.3</v>
+        <v>2.57</v>
       </c>
       <c r="H13">
-        <v>3.35</v>
+        <v>2.97</v>
       </c>
       <c r="I13">
-        <v>2.1</v>
+        <v>2.48</v>
       </c>
       <c r="J13">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K13">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="L13">
+        <v>1.37</v>
+      </c>
+      <c r="M13">
+        <v>2.8</v>
+      </c>
+      <c r="N13">
+        <v>1.95</v>
+      </c>
+      <c r="O13">
+        <v>1.7</v>
+      </c>
+      <c r="P13">
+        <v>1.51</v>
+      </c>
+      <c r="Q13">
+        <v>2.4</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <v>1.73</v>
+      </c>
+      <c r="T13">
+        <v>1.48</v>
+      </c>
+      <c r="U13">
         <v>1.3</v>
       </c>
-      <c r="M13">
-        <v>3.4</v>
-      </c>
-      <c r="N13">
-        <v>2.06</v>
-      </c>
-      <c r="O13">
-        <v>1.8</v>
-      </c>
-      <c r="P13">
-        <v>1.36</v>
-      </c>
-      <c r="Q13">
-        <v>3</v>
-      </c>
-      <c r="R13">
-        <v>1.8</v>
-      </c>
-      <c r="S13">
-        <v>1.91</v>
-      </c>
-      <c r="T13">
-        <v>1.87</v>
-      </c>
-      <c r="U13">
-        <v>1.28</v>
-      </c>
       <c r="V13">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="W13">
-        <v>1.73</v>
+        <v>1.2</v>
       </c>
       <c r="X13">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="Y13">
-        <v>1.62</v>
+        <v>1.41</v>
       </c>
       <c r="Z13">
-        <v>1.63</v>
+        <v>1.15</v>
       </c>
       <c r="AA13">
-        <v>3.25</v>
+        <v>2.56</v>
       </c>
       <c r="AB13">
-        <v>2.67</v>
+        <v>0</v>
       </c>
       <c r="AC13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD13">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="AE13">
         <v>0</v>
@@ -2153,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="AG13">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AH13">
         <v>0</v>
@@ -2179,79 +2185,79 @@
         <v>78</v>
       </c>
       <c r="F14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G14">
-        <v>2.19</v>
+        <v>1.14</v>
       </c>
       <c r="H14">
-        <v>3.2</v>
+        <v>5.78</v>
       </c>
       <c r="I14">
-        <v>2.94</v>
+        <v>12.47</v>
       </c>
       <c r="J14">
         <v>1.02</v>
       </c>
       <c r="K14">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="L14">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="M14">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N14">
-        <v>2.04</v>
+        <v>1.56</v>
       </c>
       <c r="O14">
-        <v>1.82</v>
+        <v>2.18</v>
       </c>
       <c r="P14">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="Q14">
-        <v>2.9</v>
+        <v>3.56</v>
       </c>
       <c r="R14">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="S14">
-        <v>2.05</v>
+        <v>1.55</v>
       </c>
       <c r="T14">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="U14">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="V14">
-        <v>1.6</v>
+        <v>5.25</v>
       </c>
       <c r="W14">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="X14">
-        <v>1.2</v>
+        <v>0.09</v>
       </c>
       <c r="Y14">
-        <v>1.23</v>
+        <v>1.51</v>
       </c>
       <c r="Z14">
-        <v>1.16</v>
+        <v>0.97</v>
       </c>
       <c r="AA14">
-        <v>2.39</v>
+        <v>2.48</v>
       </c>
       <c r="AB14">
-        <v>2.1</v>
+        <v>1.18</v>
       </c>
       <c r="AC14">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AD14">
-        <v>1.91</v>
+        <v>6.16</v>
       </c>
       <c r="AE14">
         <v>0</v>
@@ -2260,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AH14">
         <v>0</v>
@@ -2286,88 +2292,88 @@
         <v>79</v>
       </c>
       <c r="F15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G15">
-        <v>2.85</v>
+        <v>3.42</v>
       </c>
       <c r="H15">
-        <v>3.1</v>
+        <v>2.93</v>
       </c>
       <c r="I15">
-        <v>2.46</v>
+        <v>2.01</v>
       </c>
       <c r="J15">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="K15">
         <v>7</v>
       </c>
       <c r="L15">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
       <c r="M15">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N15">
-        <v>1.95</v>
+        <v>2.19</v>
       </c>
       <c r="O15">
-        <v>1.7</v>
+        <v>1.56</v>
       </c>
       <c r="P15">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="Q15">
-        <v>2.4</v>
+        <v>2.39</v>
       </c>
       <c r="R15">
+        <v>2.05</v>
+      </c>
+      <c r="S15">
+        <v>1.72</v>
+      </c>
+      <c r="T15">
+        <v>1.72</v>
+      </c>
+      <c r="U15">
+        <v>1.28</v>
+      </c>
+      <c r="V15">
+        <v>1.25</v>
+      </c>
+      <c r="W15">
+        <v>1.73</v>
+      </c>
+      <c r="X15">
+        <v>1.82</v>
+      </c>
+      <c r="Y15">
+        <v>1.18</v>
+      </c>
+      <c r="Z15">
+        <v>1.26</v>
+      </c>
+      <c r="AA15">
+        <v>2.44</v>
+      </c>
+      <c r="AB15">
+        <v>2.92</v>
+      </c>
+      <c r="AC15">
+        <v>8</v>
+      </c>
+      <c r="AD15">
+        <v>1.55</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
         <v>2</v>
-      </c>
-      <c r="S15">
-        <v>1.73</v>
-      </c>
-      <c r="T15">
-        <v>1.48</v>
-      </c>
-      <c r="U15">
-        <v>1.3</v>
-      </c>
-      <c r="V15">
-        <v>1.32</v>
-      </c>
-      <c r="W15">
-        <v>1.2</v>
-      </c>
-      <c r="X15">
-        <v>1.64</v>
-      </c>
-      <c r="Y15">
-        <v>1.41</v>
-      </c>
-      <c r="Z15">
-        <v>1.15</v>
-      </c>
-      <c r="AA15">
-        <v>2.56</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>1.83</v>
       </c>
       <c r="AH15">
         <v>0</v>
@@ -2393,79 +2399,79 @@
         <v>80</v>
       </c>
       <c r="F16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G16">
-        <v>1.18</v>
+        <v>3.25</v>
       </c>
       <c r="H16">
-        <v>6.2</v>
+        <v>3.06</v>
       </c>
       <c r="I16">
-        <v>14</v>
+        <v>2.02</v>
       </c>
       <c r="J16">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="K16">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="L16">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="M16">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N16">
-        <v>1.56</v>
+        <v>1.92</v>
       </c>
       <c r="O16">
-        <v>2.18</v>
+        <v>1.7</v>
       </c>
       <c r="P16">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="Q16">
-        <v>3.56</v>
+        <v>3</v>
       </c>
       <c r="R16">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="S16">
-        <v>1.55</v>
+        <v>1.91</v>
       </c>
       <c r="T16">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="U16">
-        <v>1.09</v>
+        <v>1.28</v>
       </c>
       <c r="V16">
-        <v>5.25</v>
+        <v>1.23</v>
       </c>
       <c r="W16">
+        <v>1.73</v>
+      </c>
+      <c r="X16">
         <v>2</v>
       </c>
-      <c r="X16">
-        <v>0.09</v>
-      </c>
       <c r="Y16">
-        <v>1.51</v>
+        <v>1.62</v>
       </c>
       <c r="Z16">
-        <v>0.97</v>
+        <v>1.63</v>
       </c>
       <c r="AA16">
-        <v>2.48</v>
+        <v>3.25</v>
       </c>
       <c r="AB16">
-        <v>1.18</v>
+        <v>2.67</v>
       </c>
       <c r="AC16">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AD16">
-        <v>6.16</v>
+        <v>1.64</v>
       </c>
       <c r="AE16">
         <v>0</v>
@@ -2474,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="AG16">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AH16">
         <v>0</v>
@@ -2484,95 +2490,95 @@
       </c>
     </row>
     <row r="17" spans="1:35">
-      <c r="A17">
-        <v>9543</v>
+      <c r="A17" t="s">
+        <v>40</v>
       </c>
       <c r="B17" s="2">
         <v>45107</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
         <v>81</v>
       </c>
       <c r="F17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>3.07</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="W17">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="X17">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="Z17">
-        <v>2.96</v>
+        <v>1.16</v>
       </c>
       <c r="AA17">
-        <v>2.96</v>
+        <v>2.39</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AE17">
         <v>0</v>
@@ -2591,86 +2597,86 @@
       </c>
     </row>
     <row r="18" spans="1:35">
-      <c r="A18" t="s">
-        <v>41</v>
+      <c r="A18">
+        <v>9543</v>
       </c>
       <c r="B18" s="2">
         <v>45107</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E18" t="s">
         <v>82</v>
       </c>
       <c r="F18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G18">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>4.52</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>1.78</v>
+        <v>3</v>
       </c>
       <c r="X18">
-        <v>1.22</v>
+        <v>3</v>
       </c>
       <c r="Y18">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>1.28</v>
+        <v>2.96</v>
       </c>
       <c r="AA18">
-        <v>2.86</v>
+        <v>2.96</v>
       </c>
       <c r="AB18">
         <v>0</v>
@@ -2699,94 +2705,94 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="2">
         <v>45107</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E19" t="s">
         <v>83</v>
       </c>
       <c r="F19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G19">
-        <v>2.9</v>
+        <v>2.51</v>
       </c>
       <c r="H19">
-        <v>3.1</v>
+        <v>3.11</v>
       </c>
       <c r="I19">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="J19">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="K19">
-        <v>5.75</v>
+        <v>9.5</v>
       </c>
       <c r="L19">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="M19">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="N19">
-        <v>2.57</v>
+        <v>1.76</v>
       </c>
       <c r="O19">
-        <v>1.43</v>
+        <v>1.85</v>
       </c>
       <c r="P19">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="Q19">
-        <v>2.25</v>
+        <v>2.88</v>
       </c>
       <c r="R19">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="S19">
-        <v>1.67</v>
+        <v>2.05</v>
       </c>
       <c r="T19">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="U19">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="V19">
         <v>1.4</v>
       </c>
       <c r="W19">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="X19">
-        <v>1.09</v>
+        <v>1.22</v>
       </c>
       <c r="Y19">
-        <v>1.43</v>
+        <v>1.58</v>
       </c>
       <c r="Z19">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AA19">
-        <v>2.72</v>
+        <v>2.86</v>
       </c>
       <c r="AB19">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AC19">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AD19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE19">
         <v>0</v>
@@ -2795,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="AG19">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AH19">
         <v>0</v>
@@ -2806,7 +2812,7 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="2">
         <v>45107</v>
@@ -2815,22 +2821,22 @@
         <v>58</v>
       </c>
       <c r="D20">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
         <v>84</v>
       </c>
       <c r="F20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G20">
-        <v>2.37</v>
+        <v>2.7</v>
       </c>
       <c r="H20">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="I20">
-        <v>2.93</v>
+        <v>2.23</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -2839,28 +2845,28 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>2.4</v>
+        <v>1.96</v>
       </c>
       <c r="O20">
+        <v>1.84</v>
+      </c>
+      <c r="P20">
         <v>1.5</v>
       </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
       <c r="Q20">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -2872,19 +2878,19 @@
         <v>0</v>
       </c>
       <c r="W20">
-        <v>1.29</v>
+        <v>1.75</v>
       </c>
       <c r="X20">
-        <v>1.29</v>
+        <v>1.67</v>
       </c>
       <c r="Y20">
-        <v>1.68</v>
+        <v>1.41</v>
       </c>
       <c r="Z20">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="AA20">
-        <v>3.24</v>
+        <v>3.03</v>
       </c>
       <c r="AB20">
         <v>0</v>
@@ -2913,7 +2919,7 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" s="2">
         <v>45107</v>
@@ -2922,22 +2928,22 @@
         <v>58</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
         <v>85</v>
       </c>
       <c r="F21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G21">
-        <v>2.39</v>
+        <v>2.37</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="I21">
-        <v>2.75</v>
+        <v>2.93</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2946,28 +2952,28 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="N21">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O21">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P21">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -2979,19 +2985,19 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <v>1.75</v>
+        <v>1.29</v>
       </c>
       <c r="X21">
-        <v>1.67</v>
+        <v>1.29</v>
       </c>
       <c r="Y21">
-        <v>1.41</v>
+        <v>1.68</v>
       </c>
       <c r="Z21">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="AA21">
-        <v>3.03</v>
+        <v>3.24</v>
       </c>
       <c r="AB21">
         <v>0</v>
@@ -3020,95 +3026,95 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2">
         <v>45107</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E22" t="s">
         <v>86</v>
       </c>
       <c r="F22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G22">
-        <v>1.58</v>
+        <v>2.9</v>
       </c>
       <c r="H22">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="I22">
-        <v>4.9</v>
+        <v>2.5</v>
       </c>
       <c r="J22">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="K22">
-        <v>15.75</v>
+        <v>5.75</v>
       </c>
       <c r="L22">
-        <v>1.21</v>
+        <v>1.5</v>
       </c>
       <c r="M22">
-        <v>3.97</v>
+        <v>2.4</v>
       </c>
       <c r="N22">
+        <v>2.57</v>
+      </c>
+      <c r="O22">
+        <v>1.43</v>
+      </c>
+      <c r="P22">
         <v>1.57</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
+        <v>2.25</v>
+      </c>
+      <c r="R22">
+        <v>2.1</v>
+      </c>
+      <c r="S22">
+        <v>1.67</v>
+      </c>
+      <c r="T22">
+        <v>1.53</v>
+      </c>
+      <c r="U22">
+        <v>1.36</v>
+      </c>
+      <c r="V22">
+        <v>1.4</v>
+      </c>
+      <c r="W22">
+        <v>1.73</v>
+      </c>
+      <c r="X22">
+        <v>1.09</v>
+      </c>
+      <c r="Y22">
+        <v>1.43</v>
+      </c>
+      <c r="Z22">
+        <v>1.29</v>
+      </c>
+      <c r="AA22">
+        <v>2.72</v>
+      </c>
+      <c r="AB22">
+        <v>2.05</v>
+      </c>
+      <c r="AC22">
+        <v>7.5</v>
+      </c>
+      <c r="AD22">
         <v>2</v>
       </c>
-      <c r="P22">
-        <v>1.31</v>
-      </c>
-      <c r="Q22">
-        <v>3.15</v>
-      </c>
-      <c r="R22">
-        <v>1.71</v>
-      </c>
-      <c r="S22">
-        <v>2.08</v>
-      </c>
-      <c r="T22">
-        <v>1.13</v>
-      </c>
-      <c r="U22">
-        <v>1.19</v>
-      </c>
-      <c r="V22">
-        <v>2.28</v>
-      </c>
-      <c r="W22">
-        <v>1.33</v>
-      </c>
-      <c r="X22">
-        <v>0.75</v>
-      </c>
-      <c r="Y22">
-        <v>1.2</v>
-      </c>
-      <c r="Z22">
-        <v>1.34</v>
-      </c>
-      <c r="AA22">
-        <v>2.54</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
       <c r="AE22">
         <v>0</v>
       </c>
@@ -3116,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AH22">
         <v>0</v>
@@ -3127,85 +3133,85 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2">
         <v>45107</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E23" t="s">
         <v>87</v>
       </c>
       <c r="F23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G23">
-        <v>2.55</v>
+        <v>1.47</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>3.53</v>
       </c>
       <c r="I23">
-        <v>2.8</v>
+        <v>4.42</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>15.75</v>
       </c>
       <c r="L23">
-        <v>1.47</v>
+        <v>1.21</v>
       </c>
       <c r="M23">
-        <v>2.5</v>
+        <v>3.97</v>
       </c>
       <c r="N23">
-        <v>2.31</v>
+        <v>1.57</v>
       </c>
       <c r="O23">
-        <v>1.48</v>
+        <v>2</v>
       </c>
       <c r="P23">
-        <v>1.53</v>
+        <v>1.31</v>
       </c>
       <c r="Q23">
-        <v>2.38</v>
+        <v>3.15</v>
       </c>
       <c r="R23">
-        <v>2.1</v>
+        <v>1.71</v>
       </c>
       <c r="S23">
-        <v>1.67</v>
+        <v>2.08</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="W23">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="X23">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y23">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="Z23">
-        <v>1.03</v>
+        <v>1.34</v>
       </c>
       <c r="AA23">
-        <v>2.43</v>
+        <v>2.54</v>
       </c>
       <c r="AB23">
         <v>0</v>
@@ -3249,16 +3255,16 @@
         <v>88</v>
       </c>
       <c r="F24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G24">
-        <v>3.3</v>
+        <v>3.11</v>
       </c>
       <c r="H24">
-        <v>2.85</v>
+        <v>2.68</v>
       </c>
       <c r="I24">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -3267,10 +3273,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="M24">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="N24">
         <v>2.95</v>
@@ -3347,7 +3353,7 @@
         <v>45107</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D25">
         <v>20</v>
@@ -3356,16 +3362,16 @@
         <v>89</v>
       </c>
       <c r="F25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G25">
-        <v>2.36</v>
+        <v>2.43</v>
       </c>
       <c r="H25">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="I25">
-        <v>3.3</v>
+        <v>2.67</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -3374,29 +3380,29 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.65</v>
+        <v>1.47</v>
       </c>
       <c r="M25">
-        <v>2.11</v>
+        <v>2.5</v>
       </c>
       <c r="N25">
-        <v>2.95</v>
+        <v>2.31</v>
       </c>
       <c r="O25">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="P25">
+        <v>1.53</v>
+      </c>
+      <c r="Q25">
+        <v>2.38</v>
+      </c>
+      <c r="R25">
+        <v>2.1</v>
+      </c>
+      <c r="S25">
         <v>1.67</v>
       </c>
-      <c r="Q25">
-        <v>2.1</v>
-      </c>
-      <c r="R25">
-        <v>2.5</v>
-      </c>
-      <c r="S25">
-        <v>1.5</v>
-      </c>
       <c r="T25">
         <v>0</v>
       </c>
@@ -3407,19 +3413,19 @@
         <v>0</v>
       </c>
       <c r="W25">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="X25">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="Y25">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="Z25">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="AA25">
-        <v>2.56</v>
+        <v>2.43</v>
       </c>
       <c r="AB25">
         <v>0</v>
@@ -3448,31 +3454,31 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B26" s="2">
         <v>45107</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D26">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
         <v>90</v>
       </c>
       <c r="F26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G26">
-        <v>3.04</v>
+        <v>2.25</v>
       </c>
       <c r="H26">
-        <v>3.12</v>
+        <v>2.68</v>
       </c>
       <c r="I26">
-        <v>2.13</v>
+        <v>3.11</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -3481,28 +3487,28 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="N26">
-        <v>2</v>
+        <v>2.95</v>
       </c>
       <c r="O26">
-        <v>1.73</v>
+        <v>1.3</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="T26">
         <v>0</v>
@@ -3514,19 +3520,19 @@
         <v>0</v>
       </c>
       <c r="W26">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="X26">
-        <v>1.57</v>
+        <v>1.22</v>
       </c>
       <c r="Y26">
-        <v>1.66</v>
+        <v>1.47</v>
       </c>
       <c r="Z26">
-        <v>1.44</v>
+        <v>1.09</v>
       </c>
       <c r="AA26">
-        <v>3.1</v>
+        <v>2.56</v>
       </c>
       <c r="AB26">
         <v>0</v>
@@ -3555,94 +3561,94 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2">
         <v>45107</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D27">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E27" t="s">
         <v>91</v>
       </c>
       <c r="F27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G27">
-        <v>2.1</v>
+        <v>3.04</v>
       </c>
       <c r="H27">
-        <v>3.2</v>
+        <v>3.12</v>
       </c>
       <c r="I27">
-        <v>3.75</v>
+        <v>2.13</v>
       </c>
       <c r="J27">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>2.38</v>
+        <v>2.08</v>
       </c>
       <c r="O27">
-        <v>1.53</v>
+        <v>1.68</v>
       </c>
       <c r="P27">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="X27">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="Y27">
-        <v>1.5</v>
+        <v>1.66</v>
       </c>
       <c r="Z27">
-        <v>1.11</v>
+        <v>1.44</v>
       </c>
       <c r="AA27">
-        <v>2.61</v>
+        <v>3.1</v>
       </c>
       <c r="AB27">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="AC27">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD27">
-        <v>2.39</v>
+        <v>0</v>
       </c>
       <c r="AE27">
         <v>0</v>
@@ -3651,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="AG27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH27">
         <v>0</v>
@@ -3662,7 +3668,7 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2">
         <v>45107</v>
@@ -3671,85 +3677,85 @@
         <v>63</v>
       </c>
       <c r="D28">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E28" t="s">
         <v>92</v>
       </c>
       <c r="F28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G28">
-        <v>2.15</v>
+        <v>1.68</v>
       </c>
       <c r="H28">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I28">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="J28">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="K28">
-        <v>7.7</v>
+        <v>6.5</v>
       </c>
       <c r="L28">
         <v>1.44</v>
       </c>
       <c r="M28">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="N28">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="O28">
+        <v>1.62</v>
+      </c>
+      <c r="P28">
         <v>1.5</v>
       </c>
-      <c r="P28">
-        <v>1.52</v>
-      </c>
       <c r="Q28">
-        <v>2.39</v>
+        <v>2.5</v>
       </c>
       <c r="R28">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S28">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="T28">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="U28">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="V28">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="W28">
-        <v>0.71</v>
+        <v>1.18</v>
       </c>
       <c r="X28">
-        <v>0.83</v>
+        <v>0.36</v>
       </c>
       <c r="Y28">
-        <v>1.83</v>
+        <v>1.29</v>
       </c>
       <c r="Z28">
-        <v>1.53</v>
+        <v>1.07</v>
       </c>
       <c r="AA28">
-        <v>3.36</v>
+        <v>2.36</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>3.02</v>
       </c>
       <c r="AE28">
         <v>0</v>
@@ -3758,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH28">
         <v>0</v>
@@ -3769,7 +3775,7 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B29" s="2">
         <v>45107</v>
@@ -3778,85 +3784,85 @@
         <v>63</v>
       </c>
       <c r="D29">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E29" t="s">
         <v>93</v>
       </c>
       <c r="F29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G29">
-        <v>1.68</v>
+        <v>2.07</v>
       </c>
       <c r="H29">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="I29">
-        <v>5.5</v>
+        <v>3.15</v>
       </c>
       <c r="J29">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="K29">
-        <v>6.5</v>
+        <v>7.7</v>
       </c>
       <c r="L29">
         <v>1.44</v>
       </c>
       <c r="M29">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="N29">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="O29">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="P29">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Q29">
-        <v>2.5</v>
+        <v>2.39</v>
       </c>
       <c r="R29">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S29">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="T29">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="U29">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="V29">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="W29">
-        <v>1.18</v>
+        <v>0.71</v>
       </c>
       <c r="X29">
-        <v>0.36</v>
+        <v>0.83</v>
       </c>
       <c r="Y29">
-        <v>1.29</v>
+        <v>1.83</v>
       </c>
       <c r="Z29">
-        <v>1.07</v>
+        <v>1.53</v>
       </c>
       <c r="AA29">
-        <v>2.36</v>
+        <v>3.36</v>
       </c>
       <c r="AB29">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AC29">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD29">
-        <v>3.02</v>
+        <v>0</v>
       </c>
       <c r="AE29">
         <v>0</v>
@@ -3865,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="AG29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH29">
         <v>0</v>
@@ -3876,94 +3882,94 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2">
         <v>45107</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E30" t="s">
         <v>94</v>
       </c>
       <c r="F30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G30">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H30">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="I30">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="J30">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="K30">
-        <v>12.25</v>
+        <v>6</v>
       </c>
       <c r="L30">
-        <v>1.26</v>
+        <v>1.5</v>
       </c>
       <c r="M30">
-        <v>3.48</v>
+        <v>2.5</v>
       </c>
       <c r="N30">
-        <v>1.73</v>
+        <v>2.38</v>
       </c>
       <c r="O30">
-        <v>1.79</v>
+        <v>1.53</v>
       </c>
       <c r="P30">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="Q30">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="R30">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="S30">
-        <v>2.05</v>
+        <v>1.67</v>
       </c>
       <c r="T30">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="U30">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="V30">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="W30">
-        <v>0.86</v>
+        <v>1.3</v>
       </c>
       <c r="X30">
         <v>1</v>
       </c>
       <c r="Y30">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="Z30">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AA30">
-        <v>2.69</v>
+        <v>2.61</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="AE30">
         <v>0</v>
@@ -3972,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="AG30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH30">
         <v>0</v>
@@ -3983,7 +3989,7 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2">
         <v>45107</v>
@@ -3992,76 +3998,76 @@
         <v>64</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="s">
         <v>95</v>
       </c>
       <c r="F31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G31">
-        <v>1.35</v>
+        <v>1.98</v>
       </c>
       <c r="H31">
-        <v>4.72</v>
+        <v>3.01</v>
       </c>
       <c r="I31">
-        <v>7.2</v>
+        <v>2.84</v>
       </c>
       <c r="J31">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K31">
-        <v>17</v>
+        <v>12.25</v>
       </c>
       <c r="L31">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="M31">
-        <v>4.5</v>
+        <v>3.48</v>
       </c>
       <c r="N31">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="O31">
-        <v>2.2</v>
+        <v>1.78</v>
       </c>
       <c r="P31">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="Q31">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="R31">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="S31">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="T31">
-        <v>1.09</v>
+        <v>1.32</v>
       </c>
       <c r="U31">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="V31">
-        <v>2.95</v>
+        <v>1.65</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="X31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="AB31">
         <v>0</v>
@@ -4073,19 +4079,19 @@
         <v>0</v>
       </c>
       <c r="AE31">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AF31">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AG31">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AH31">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="AI31">
-        <v>3.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:35">
@@ -4105,55 +4111,55 @@
         <v>96</v>
       </c>
       <c r="F32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G32">
-        <v>4.98</v>
+        <v>1.35</v>
       </c>
       <c r="H32">
-        <v>4.1</v>
+        <v>4.72</v>
       </c>
       <c r="I32">
-        <v>1.55</v>
+        <v>7.2</v>
       </c>
       <c r="J32">
         <v>1.02</v>
       </c>
       <c r="K32">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L32">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M32">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N32">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="O32">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P32">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q32">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R32">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="S32">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="T32">
-        <v>2.3</v>
+        <v>1.09</v>
       </c>
       <c r="U32">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="V32">
-        <v>1.15</v>
+        <v>2.95</v>
       </c>
       <c r="W32">
         <v>0</v>
@@ -4197,108 +4203,215 @@
     </row>
     <row r="33" spans="1:35">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B33" s="2">
         <v>45107</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D33">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E33" t="s">
         <v>97</v>
       </c>
       <c r="F33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G33">
-        <v>1.65</v>
+        <v>4.98</v>
       </c>
       <c r="H33">
+        <v>4.1</v>
+      </c>
+      <c r="I33">
+        <v>1.55</v>
+      </c>
+      <c r="J33">
+        <v>1.02</v>
+      </c>
+      <c r="K33">
+        <v>13</v>
+      </c>
+      <c r="L33">
+        <v>1.18</v>
+      </c>
+      <c r="M33">
+        <v>4.75</v>
+      </c>
+      <c r="N33">
+        <v>1.58</v>
+      </c>
+      <c r="O33">
+        <v>2.25</v>
+      </c>
+      <c r="P33">
+        <v>1.29</v>
+      </c>
+      <c r="Q33">
         <v>3.5</v>
       </c>
-      <c r="I33">
-        <v>4.4</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>1.86</v>
-      </c>
-      <c r="O33">
-        <v>1.72</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
       <c r="R33">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>1.25</v>
+      </c>
+      <c r="AF33">
+        <v>1.47</v>
+      </c>
+      <c r="AG33">
+        <v>1.85</v>
+      </c>
+      <c r="AH33">
+        <v>2.45</v>
+      </c>
+      <c r="AI33">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="2">
+        <v>45107</v>
+      </c>
+      <c r="C34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" t="s">
+        <v>131</v>
+      </c>
+      <c r="G34">
+        <v>1.84</v>
+      </c>
+      <c r="H34">
+        <v>3.4</v>
+      </c>
+      <c r="I34">
+        <v>3.3</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
         <v>2</v>
       </c>
-      <c r="X33">
+      <c r="O34">
+        <v>1.8</v>
+      </c>
+      <c r="P34">
+        <v>1.44</v>
+      </c>
+      <c r="Q34">
+        <v>2.63</v>
+      </c>
+      <c r="R34">
+        <v>2</v>
+      </c>
+      <c r="S34">
+        <v>1.73</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>2</v>
+      </c>
+      <c r="X34">
         <v>0.8</v>
       </c>
-      <c r="Y33">
+      <c r="Y34">
         <v>1.46</v>
       </c>
-      <c r="Z33">
+      <c r="Z34">
         <v>1.2</v>
       </c>
-      <c r="AA33">
+      <c r="AA34">
         <v>2.66</v>
       </c>
-      <c r="AB33">
-        <v>0</v>
-      </c>
-      <c r="AC33">
-        <v>0</v>
-      </c>
-      <c r="AD33">
-        <v>0</v>
-      </c>
-      <c r="AE33">
-        <v>0</v>
-      </c>
-      <c r="AF33">
-        <v>0</v>
-      </c>
-      <c r="AG33">
-        <v>0</v>
-      </c>
-      <c r="AH33">
-        <v>0</v>
-      </c>
-      <c r="AI33">
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
         <v>0</v>
       </c>
     </row>
